--- a/biology/Botanique/Alexandra_Jansen/Alexandra_Jansen.xlsx
+++ b/biology/Botanique/Alexandra_Jansen/Alexandra_Jansen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandra Jansen est designer et animatrice de télévision de jardin allemande née le 28 octobre 1970 (53 ans) à Sarrebruck. Elle réalise beaucoup de ses projets pour la Grande Région en étant installée en France jusqu'en 2012 puis jusqu'en 2017 au Luxembourg où elle a été chef du projet du parc historique (crée 1886 par Édouard André) et de la Roseraie du Domaine thermal à Mondorf-les-Bains
 </t>
@@ -511,11 +523,13 @@
           <t>Créations de parcs publics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De 2008 à 2014, elle est conseillère au bureau d’étude pour l'espace vert de la commune Hambach Roth.
-2009 : parc espace Dietsch avec Michael Marriott à Sarreguemines (réalisation terminé ouverture en 2012)[1],[2]
-2010 : projet Château pour Sarreguemines (les études sont validés, la réalisation est en attente)[1]
+2009 : parc espace Dietsch avec Michael Marriott à Sarreguemines (réalisation terminé ouverture en 2012),
+2010 : projet Château pour Sarreguemines (les études sont validés, la réalisation est en attente)
 2010 : jardin du Centre technique à Sarreguemines.
 2012 : projet Château d'Alteville à Tarquimpol.
 2013-2016 : Domain Thermale Mondorf les Bains Luxembourg</t>
@@ -546,13 +560,15 @@
           <t>Projets internationaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2007-2016, en partenariat avec Michael Marriott de la Maison David Austin Roses Wolverhampton UK[3]
-2011 Verver Export NL. Creation de la ligne Le Jardin Sans Soucis © pour les villes et communes en Europe[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2007-2016, en partenariat avec Michael Marriott de la Maison David Austin Roses Wolverhampton UK
+2011 Verver Export NL. Creation de la ligne Le Jardin Sans Soucis © pour les villes et communes en Europe
 2013-2016: Projet Parc Thermal Mondorf-les-Bains, Luxembourg.
 2014-2015: Projet  Parc historique Domaine Pescatore, Baron Maleingreau d'Hembise a Sandweiler
-2017 Festival international Chaumont sur Loire, Le Bouquet d'après, avec collaboration Carlos Esteves Duarte, Vero Reato, Michel Grimmer, Bruno Jansen[5]</t>
+2017 Festival international Chaumont sur Loire, Le Bouquet d'après, avec collaboration Carlos Esteves Duarte, Vero Reato, Michel Grimmer, Bruno Jansen</t>
         </is>
       </c>
     </row>
@@ -580,10 +596,12 @@
           <t>Radio</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>De 2007 à 2011 : Modérateur chez Radio Mélodie Autour du jardin[6]
-2011- 2014 : France Bleu Lorraine Nord[7],[8]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De 2007 à 2011 : Modérateur chez Radio Mélodie Autour du jardin
+2011- 2014 : France Bleu Lorraine Nord,</t>
         </is>
       </c>
     </row>
@@ -611,15 +629,17 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2008-2013 : le Jardin d'Alexandra
 2008-2013 : Le Jardin sans Souci
 2008 : TF1 journal télévisé de Jean-Pierre Pernot
-2008 : Saar Lor Lux[9]
+2008 : Saar Lor Lux
 2009 : Laurent Parisot
-2011 : Fahr mal hin[1]
-2011 : Mag's[10]
+2011 : Fahr mal hin
+2011 : Mag's
 2012 : VIS a VIS
 2014 : portrait Zusammen Kochen
 2015-2017 : Fahr mal hin</t>
@@ -650,12 +670,14 @@
           <t>Presse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2008-2010 : Sarre Hebdo, chronique mensuelle.
-Depuis 2009 : chroniqueur au site jardin Gerbeaud.com[11]
+Depuis 2009 : chroniqueur au site jardin Gerbeaud.com
 2009 : chroniqueur Der Wochenspiegel
-Depuis 2010 : Opus Kulturmagazin[12]
+Depuis 2010 : Opus Kulturmagazin
 2011 : correspondante étrangère GartenEden (Magazin).
 depuis 2016 Chroniques du jardin pour Gaart an Heem Luxembourg (Luxembourg)</t>
         </is>
@@ -685,12 +707,14 @@
           <t>Événements culturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2008 : Art et Jardin organisé à Hambach[13]
-2009 : Art et Jardin organisé à Hambach[13]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008 : Art et Jardin organisé à Hambach
+2009 : Art et Jardin organisé à Hambach
 2010 et 2011 les journées du jardin franco allemand avec Eva Marie Ratius. Sarrebruck
-2011: Art et Jardin organisé au Jardin Franco-Allemand à Sarrebruck en partenariat avec la ville de Sarrebruck et QuattroPole[14],[15]
+2011: Art et Jardin organisé au Jardin Franco-Allemand à Sarrebruck en partenariat avec la ville de Sarrebruck et QuattroPole,
 2012 Arts et Jardin, organisé au Jardin d'Alexandra, 1-3 juin 2012.
 2014 Arts et Jardin Mondorf, Domaine thermal Mondorf-les-Bains
 2016 Arts et Jardin Mondorf, Casino 2000</t>
@@ -721,9 +745,11 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2010 sortie du roman (de) Die Gärtnerin und das Geheimnis von St. Walfrid, Geistkirchverlag,  (ISBN 978-3-938889-96-1)[16]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2010 sortie du roman (de) Die Gärtnerin und das Geheimnis von St. Walfrid, Geistkirchverlag,  (ISBN 978-3-938889-96-1)</t>
         </is>
       </c>
     </row>
@@ -751,14 +777,16 @@
           <t>Parutions sur son travail et son jardin</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2007 : Mein schöner Garten[17]
-2008 : la une dans le SarreHebdo[18]
-2009 : Tout Info[19]57 Mag
-2010 : Lignes de vie[20]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2007 : Mein schöner Garten
+2008 : la une dans le SarreHebdo
+2009 : Tout Info57 Mag
+2010 : Lignes de vie
 2010 : Femme Metz, Femme Nancy
-2011 : L'Art des jardins[21]
+2011 : L'Art des jardins
 2012 : Lignes de vie, Rustica (mai 2012) Lisa, Mini n° 32, Welt der Frau, Meine Pause n° 10,.http://www.lejardindalexandra.com/le-jardin-d-alexandra/der-garten-ohne-sorgen/presse/
 2013 : Ligne de vie, http://www.florence-soriano-gafiuk.fr/blog/public-LDV/LignesdeVie/2013/LdV_-_Janvier_2013.pdf</t>
         </is>
@@ -788,14 +816,16 @@
           <t>Prix et récompenses et conférences</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2007 : 3e prix national concours le plus beau jardin en été[22]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2007 : 3e prix national concours le plus beau jardin en été
 2009 : Ruban d'argent pour l’aménagement du jardin d'expo pour la maison David Austin Roses à Courson
 2009 : nommée femme influence Lorraine à Metz
-2010 : Ruban d'Argent pour l’aménagement du jardin d'expo pour la Maison David Austin Roses à Courson[23]
-2010 : La 2e fleurs pour la commune de Hambach Roth[24]
-2011 : Ruban d'or à Courson, et conférence avec Michael Marriott[25],[26]
+2010 : Ruban d'Argent pour l’aménagement du jardin d'expo pour la Maison David Austin Roses à Courson
+2010 : La 2e fleurs pour la commune de Hambach Roth
+2011 : Ruban d'or à Courson, et conférence avec Michael Marriott,
 2012 Ruban d'or à Courson, conférence Le jardin sans soucis sous un climat continental à Courson.http://www.gerbeaud.com/jardin/evenements/evt,2557.html
 2012 : 3e fleur pour la commune de Hambach Roth.http://www.ici-c-nancy.fr/index.php/actus/actualites/lorraine/item/4371-villes-et-villages-fleuris-de-lorraine-palmares-2012
 2013 4e Rubain d'Or à Courson,
